--- a/teaching/traditional_assets/database/data/portugal/portugal_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/portugal/portugal_financial_svcs_non_bank_insurance.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.1504587155963303</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="H2">
-        <v>-0.1504587155963303</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="I2">
-        <v>-0.1651376146788991</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="J2">
-        <v>-0.1651376146788991</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="K2">
-        <v>-0.076</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.1394495412844036</v>
+        <v>-0.0139751552795031</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="AB2">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -660,22 +660,22 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AM2">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-90</v>
+        <v>0.5</v>
       </c>
       <c r="AP2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-90</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +686,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raize Serviços de Gestão, S.A. (ENXTLS:MLRZE)</t>
+          <t>RAIZE - Instituição de Pagamentos, S.A. (ENXTLS:MLRZE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -695,22 +695,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.1504587155963303</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="H3">
-        <v>-0.1504587155963303</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="I3">
-        <v>-0.1651376146788991</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="J3">
-        <v>-0.1651376146788991</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="K3">
-        <v>-0.076</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="L3">
-        <v>-0.1394495412844036</v>
+        <v>-0.0139751552795031</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="AB3">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -764,22 +764,22 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AM3">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-90</v>
+        <v>0.5</v>
       </c>
       <c r="AP3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-90</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
